--- a/xlsx/人種_intext.xlsx
+++ b/xlsx/人種_intext.xlsx
@@ -29,7 +29,7 @@
     <t>膚色</t>
   </si>
   <si>
-    <t>政策_政策_美國_人種</t>
+    <t>体育运动_体育运动_种族歧视_人種</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%AE%E8%89%B2</t>
